--- a/Resources/Documents/EntityList.xlsx
+++ b/Resources/Documents/EntityList.xlsx
@@ -340,50 +340,50 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -911,56 +911,56 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="14" t="s">
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="14" t="s">
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="16"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="18" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="M13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="20" t="s">
+      <c r="O13" s="16" t="s">
         <v>31</v>
       </c>
     </row>
@@ -983,44 +983,44 @@
       <c r="F14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>0.8</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="8">
         <v>1.1499999999999999</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="13">
         <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G15" s="10"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
     </row>
     <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1041,44 +1041,44 @@
       <c r="F16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <v>0.75</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="8">
         <v>0.6</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="N16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="13">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G17" s="10"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="8"/>
     </row>
     <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1099,44 +1099,44 @@
       <c r="F18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="N18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O18" s="13">
         <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G19" s="10"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="8"/>
     </row>
     <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1157,44 +1157,44 @@
       <c r="F20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="8">
         <v>1.3</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="N20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="13">
         <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G21" s="10"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="8"/>
     </row>
     <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -1215,44 +1215,44 @@
       <c r="F22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <v>1.35</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="8">
         <v>0.75</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="N22" s="8" t="s">
+      <c r="N22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="O22" s="9" t="s">
+      <c r="O22" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G23" s="10"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="8"/>
     </row>
     <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1273,61 +1273,61 @@
       <c r="F24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>1.2</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="8">
         <v>0.8</v>
       </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="8"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="L25" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M25" s="10"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="8"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G26" s="10"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="8"/>
     </row>
     <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1348,26 +1348,26 @@
       <c r="F27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="8"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G28" s="10"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="8"/>
     </row>
     <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -1388,15 +1388,15 @@
       <c r="F29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="13"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
